--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-03.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-03.xlsx
@@ -704,7 +704,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] Be it Talulah, the Guerrillas, so on, they're all "names" and nothing more.
+    <t xml:space="preserve">[name="Talulah"] Be it Talulah, the Guerrillas, so on, they're all 'names' and nothing more.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-03.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-03.xlsx
@@ -672,7 +672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Fighter"] Not just the tundra, really... the world’s so vast, and to say it straight, some people are just thinking of taking the chance to leave this place.
+    <t xml:space="preserve">[name="Infected Fighter"] Not just the tundra, really... the world's so vast, and to say it straight, some people are just thinking of taking the chance to leave this place.
 </t>
   </si>
   <si>
